--- a/FurloughLayoffs.xlsx
+++ b/FurloughLayoffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonii\Documents\Career\Python\Summer Research\Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C15D31-84F7-466B-8062-A2B846861127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01AB32C-510F-4E84-880B-781287562252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="6480" windowWidth="21600" windowHeight="11385" xr2:uid="{695A02D9-E56D-47BA-96DC-132B0D833189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{695A02D9-E56D-47BA-96DC-132B0D833189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>CIK</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Industrial Distribution</t>
+  </si>
+  <si>
+    <t>Furloughs per industry</t>
+  </si>
+  <si>
+    <t>Furlough and Layoffs for each industry</t>
+  </si>
+  <si>
+    <t>Layoffs per mention of furlough</t>
   </si>
 </sst>
 </file>
@@ -205,12 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D9652-57CC-4863-9DFE-EB6DDAE6E115}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +549,10 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,9 +569,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1750</v>
+        <v>6845</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -569,86 +580,92 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3197</v>
+        <v>14707</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4281</v>
+        <v>18498</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6176</v>
+        <v>39911</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6201</v>
+        <v>12040</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6845</v>
+        <v>13573</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -657,19 +674,26 @@
         <f>COUNTIF($E$2:$E$40, "Industrial")/COUNTIF($E$2:$E$40, "*")</f>
         <v>0.28205128205128205</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <f>6/11</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6955</v>
+        <v>16099</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -678,19 +702,26 @@
         <f>COUNTIF($E$2:$E$40, "Entertainment")/COUNTIF($E$2:$E$40, "*")</f>
         <v>0.20512820512820512</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9092</v>
+        <v>16918</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -699,22 +730,26 @@
         <f>COUNTIF($E$2:$E$40, "Transportation")/COUNTIF($E$2:$E$40, "*")</f>
         <v>0.10256410256410256</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9984</v>
+        <v>20212</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -723,16 +758,25 @@
         <f>COUNTIF($E$2:$E$40, "Architecture")/COUNTIF($E$2:$E$40, "*")</f>
         <v>2.564102564102564E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12040</v>
+        <v>33488</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -744,19 +788,29 @@
         <f>COUNTIF($E$2:$E$40, "Information Technology")/COUNTIF($E$2:$E$40, "*")</f>
         <v>5.128205128205128E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12927</v>
+        <v>34563</v>
       </c>
       <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -765,24 +819,44 @@
         <f>COUNTIF($E$2:$E$40, "Real Estate")/COUNTIF($E$2:$E$40, "*")</f>
         <v>5.128205128205128E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13573</v>
+        <v>39899</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <f>COUNTIF($E$2:$E$40, H13)/COUNTIF($E$2:$E$40, "*")</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14272</v>
+        <v>34782</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -791,29 +865,45 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <f>COUNTIF($E$2:$E$40, H14)/COUNTIF($E$2:$E$40, "*")</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14707</v>
+        <v>9984</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14846</v>
+        <v>1750</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -822,86 +912,93 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16099</v>
+        <v>3197</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16875</v>
+        <v>4281</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2">
+        <f>COUNTIF(B2:C40, "layoffs")/COUNTIF(E2:E40, "*")</f>
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16918</v>
+        <v>6176</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18498</v>
+        <v>6955</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20212</v>
+        <v>9092</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21510</v>
       </c>
@@ -918,77 +1015,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>29905</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32604</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40987</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>23111</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25475</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25895</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>27904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27996</v>
-      </c>
       <c r="B27" t="s">
         <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -997,9 +1091,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>29332</v>
+        <v>27996</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1008,29 +1102,32 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29669</v>
+        <v>25475</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29905</v>
+        <v>14272</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1039,13 +1136,13 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31235</v>
       </c>
@@ -1059,23 +1156,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32604</v>
+        <v>14846</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33002</v>
+        <v>29332</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1084,123 +1184,117 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33488</v>
+        <v>29669</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34563</v>
+        <v>40570</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34782</v>
+        <v>25895</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>39899</v>
+        <v>6201</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>39911</v>
+        <v>12927</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>40570</v>
+        <v>16875</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40987</v>
+        <v>27904</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="E2:E40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/FurloughLayoffs.xlsx
+++ b/FurloughLayoffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonii\Documents\Career\Python\Summer Research\Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01AB32C-510F-4E84-880B-781287562252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91398963-DB07-42FC-9F26-E1EF3CF2BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{695A02D9-E56D-47BA-96DC-132B0D833189}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
